--- a/InWork/Pulley & Belts/Bom.xlsx
+++ b/InWork/Pulley & Belts/Bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Bering 625zz</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Spacer 74</t>
   </si>
   <si>
-    <t>Spacer 88</t>
-  </si>
-  <si>
     <t>Courroie GT2 Close L154mm (ou entre 150 et 160)</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>Spacer 75</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000114726218.html?spm=a2g0s.9042311.0.0.2cc84c4dCTUro2</t>
+  </si>
+  <si>
+    <t>Amortisseur Nema17</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -551,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -562,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -616,29 +619,29 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -649,10 +652,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -660,64 +663,67 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
+      <c r="C21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -725,15 +731,23 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" display="https://fr.aliexpress.com/item/33023133633.html?spm=a2g0o.productlist.0.0.221c2bc53DqQU8&amp;algo_pvid=d081ab14-bd3c-4317-a7e2-12608228c064&amp;algo_expid=d081ab14-bd3c-4317-a7e2-12608228c064-1&amp;btsid=0b0a187b16109738380781474e0236&amp;ws_ab_test=searchweb0_0%2Csearch"/>
+    <hyperlink ref="C22" display="https://fr.aliexpress.com/item/33023133633.html?spm=a2g0o.productlist.0.0.221c2bc53DqQU8&amp;algo_pvid=d081ab14-bd3c-4317-a7e2-12608228c064&amp;algo_expid=d081ab14-bd3c-4317-a7e2-12608228c064-1&amp;btsid=0b0a187b16109738380781474e0236&amp;ws_ab_test=searchweb0_0%2Csearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/InWork/Pulley & Belts/Bom.xlsx
+++ b/InWork/Pulley & Belts/Bom.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Bering 625zz</t>
   </si>
@@ -70,18 +70,6 @@
     <t>https://fr.aliexpress.com/item/4000704090811.html?spm=a2g0o.cart.0.0.28963c00ZiA8Oa&amp;mp=1</t>
   </si>
   <si>
-    <t>https://fr.aliexpress.com/item/32900283591.html?spm=a2g0o.detail.1000014.31.1fbe5d325aWlmv&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.14976.205978.0&amp;scm_id=1007.14976.205978.0&amp;scm-url=1007.14976.205978.0&amp;pvid=5c0bbc79-357b-4af2-88a5-1c6167917532&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.14976.205978.0,pvid:5c0bbc79-357b-4af2-88a5-1c6167917532,tpp_buckets:668%230%23131923%2391_668%23888%233325%2314_4976%230%23205978%2314_4976%232711%237538%23442_4976%233104%239653%239_4976%234052%2318550%2343_4976%233141%239887%239_668%232846%238115%232000_668%232717%237565%23746_668%231000022185%231000066059%230_668%233422%2315392%23588_4452%230%23189847%230_4452%233474%2315675%23135_4452%234862%2322449%23189_4452%233098%239599%23575_4452%233564%2316062%23109</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/1005001279496068.html?spm=a2g0o.productlist.0.0.689918d4fdKWV0&amp;algo_pvid=4b48832b-250b-4363-b1f1-f9dc036333e6&amp;algo_expid=4b48832b-250b-4363-b1f1-f9dc036333e6-5&amp;btsid=2100bdec16108682388381289eda39&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32816424545.html?spm=a2g0o.productlist.0.0.47573c13ZvsjoL&amp;algo_pvid=cb2444b4-91b8-4700-8bbe-f0d05beb836c&amp;algo_expid=cb2444b4-91b8-4700-8bbe-f0d05beb836c-13&amp;btsid=2100bdec16108682733391528eda39&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32798773566.html?spm=a2g0o.productlist.0.0.38a75cffO0Pxq9&amp;algo_pvid=7c9595a0-ed8e-415c-8d2e-fd6399d024d8&amp;algo_expid=7c9595a0-ed8e-415c-8d2e-fd6399d024d8-0&amp;btsid=2100bdec16108683430882119eda39&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
-  </si>
-  <si>
     <t>https://fr.aliexpress.com/item/4001308821466.html?spm=a2g0o.cart.0.0.28963c00ZiA8Oa&amp;mp=1</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>Courroie GT2 Close L154mm (ou entre 150 et 160)</t>
   </si>
   <si>
-    <t>https://fr.aliexpress.com/item/4000311901856.html?spm=a2g0o.productlist.0.0.37ad6b14DseSGa&amp;algo_pvid=c8439dd2-6974-430f-b405-9e7140441b2a&amp;algo_expid=c8439dd2-6974-430f-b405-9e7140441b2a-18&amp;btsid=2100bb4716108724613121588e5ce8&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
-  </si>
-  <si>
     <t>https://fr.aliexpress.com/item/33023133633.html?spm=a2g0o.productlist.0.0.221c2bc53DqQU8&amp;algo_pvid=d081ab14-bd3c-4317-a7e2-12608228c064&amp;algo_expid=d081ab14-bd3c-4317-a7e2-12608228c064-1&amp;btsid=0b0a187b16109738380781474e0236&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_%2Csearchweb201603_&amp;fbclid=IwAR3X65aqVMN590emrq9QAXER4_ZiEADVFxJHvQ2WooANg4e2DhgxfH-szNE</t>
   </si>
   <si>
@@ -116,6 +101,24 @@
   </si>
   <si>
     <t>Amortisseur Nema17</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32816424545.html?spm=a2g0o.productlist.0.0.47573c13ZvsjoL&amp;algo_pvid=cb2444b4-91b8-4700-8bbe-f0d05beb836c&amp;algo_expid=cb2444b4-91b8-4700-8bbe-f0d05beb836c-13&amp;btsid=2100bdec16108682733391528eda39&amp;ws_ab_test=searchweb0_0,searchw</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005001279496068.html?spm=a2g0o.productlist.0.0.689918d4fdKWV0&amp;algo_pvid=4b48832b-250b-4363-b1f1-f9dc036333e6&amp;algo_expid=4b48832b-250b-4363-b1f1-f9dc036333e6-5&amp;btsid=2100bdec16108682388381289eda39&amp;ws_ab_test=searchweb0_0,sea</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32798773566.html?spm=a2g0o.productlist.0.0.38a75cffO0Pxq9&amp;algo_pvid=7c9595a0-ed8e-415c-8d2e-fd6399d024d8&amp;algo_expid=7c9595a0-ed8e-415c-8d2e-fd6399d024d8-0&amp;btsid=2100bdec16108683430882119eda39&amp;ws_ab_test=searchweb0_0,searchwe</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/33023133633.html?spm=a2g0o.productlist.0.0.221c2bc53DqQU8&amp;algo_pvid=d081ab14-bd3c-4317-a7e2-12608228c064&amp;algo_expid=d081ab14-bd3c-4317-a7e2-12608228c064-1&amp;btsid=0b0a187b16109738380781474e0236&amp;ws_ab_test=searchweb0_0%2Csearch</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32900283591.html?spm=a2g0o.detail.1000014.31.1fbe5d325aWlmv&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.14976.205978.0&amp;scm_id=1007.14976.205978.0&amp;scm-url=1007.14976.205978.0&amp;pvid=5c0bbc79-357b-4af2-88a5-1c6167917532&amp;_t=gps</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/4000311901856.html?spm=a2g0o.productlist.0.0.37ad6b14DseSGa&amp;algo_pvid=c8439dd2-6974-430f-b405-9e7140441b2a&amp;algo_expid=c8439dd2-6974-430f-b405-9e7140441b2a-18&amp;btsid=2100bb4716108724613121588e5ce8&amp;ws_ab_test=searchweb0_0,searc</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,17 +484,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -502,106 +505,106 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -609,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -617,70 +620,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
@@ -688,18 +691,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -707,21 +710,21 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -729,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -737,19 +740,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C22" display="https://fr.aliexpress.com/item/33023133633.html?spm=a2g0o.productlist.0.0.221c2bc53DqQU8&amp;algo_pvid=d081ab14-bd3c-4317-a7e2-12608228c064&amp;algo_expid=d081ab14-bd3c-4317-a7e2-12608228c064-1&amp;btsid=0b0a187b16109738380781474e0236&amp;ws_ab_test=searchweb0_0%2Csearch"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C23" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>
 </worksheet>
 </file>